--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Price</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>Computer</t>
+  </si>
+  <si>
+    <t>Rs. 389</t>
+  </si>
+  <si>
+    <t>Muscle Torque Zip Sweatshirts</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Rs. 1390</t>
   </si>
 </sst>
 </file>
@@ -372,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,50 +430,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -27,25 +27,25 @@
     <t>S</t>
   </si>
   <si>
-    <t>Rs. 899</t>
-  </si>
-  <si>
     <t>SearchText</t>
   </si>
   <si>
     <t>Computer</t>
   </si>
   <si>
-    <t>Rs. 389</t>
-  </si>
-  <si>
-    <t>Muscle Torque Zip Sweatshirts</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Rs. 1390</t>
+    <t>Rs. 467</t>
+  </si>
+  <si>
+    <t>Rs. 999</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>Onesize</t>
+  </si>
+  <si>
+    <t>Rs. 845</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -411,10 +411,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Price</t>
   </si>
@@ -24,28 +24,34 @@
     <t>Size</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>SearchText</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Rs. 467</t>
-  </si>
-  <si>
-    <t>Rs. 999</t>
-  </si>
-  <si>
-    <t>Philips</t>
-  </si>
-  <si>
-    <t>Onesize</t>
-  </si>
-  <si>
-    <t>Rs. 845</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>LUXEHOME INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Rs. 599</t>
+  </si>
+  <si>
+    <t>40G</t>
+  </si>
+  <si>
+    <t>Lotus Herbals</t>
+  </si>
+  <si>
+    <t>Rs. 217</t>
+  </si>
+  <si>
+    <t>JOY</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Rs. 196</t>
   </si>
 </sst>
 </file>
@@ -81,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +396,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -408,35 +417,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
